--- a/Lab6/Lab6BOM.xlsx
+++ b/Lab6/Lab6BOM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -694,7 +694,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T38" sqref="T38"/>
+      <selection activeCell="N10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,5 +1415,6 @@
   </sheetData>
   <autoFilter ref="A5:M5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>